--- a/Übersicht Mengen Parameter Variablen Nebenbedingungen.xlsx
+++ b/Übersicht Mengen Parameter Variablen Nebenbedingungen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas Stahl\Documents\Masterarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas Stahl\Documents\MA2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="242">
   <si>
     <t>Alt</t>
   </si>
@@ -465,9 +465,6 @@
     <t>evtl nicht nötig</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
     <t>demC</t>
   </si>
   <si>
@@ -501,9 +498,6 @@
     <t>ctDs</t>
   </si>
   <si>
-    <t>ctPr</t>
-  </si>
-  <si>
     <t>wdWe</t>
   </si>
   <si>
@@ -522,9 +516,6 @@
     <t>tmAL</t>
   </si>
   <si>
-    <t>TFVl</t>
-  </si>
-  <si>
     <t>alph</t>
   </si>
   <si>
@@ -537,9 +528,6 @@
     <t>ynNW</t>
   </si>
   <si>
-    <t>inpt</t>
-  </si>
-  <si>
     <t>rqNw</t>
   </si>
   <si>
@@ -622,6 +610,174 @@
   </si>
   <si>
     <t>szWW</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Zusammenfassung Mengen</t>
+  </si>
+  <si>
+    <t>Zusammenfassung Ranges</t>
+  </si>
+  <si>
+    <t>Wochen, WochenGanz, WorkstretchRange, IOPRange, BDTageRange</t>
+  </si>
+  <si>
+    <t>Personal, Dienste, Tage, Input, Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range in Excel </t>
+  </si>
+  <si>
+    <t>Nachrage FA 
+B2 - (2+AnzahlDienste:2+AnzahlTage)</t>
+  </si>
+  <si>
+    <t>NachfrageFA
+B2 - (2+AnzahlDienste:2+AnzahlTage)</t>
+  </si>
+  <si>
+    <t>NachfrageOA
+B2 - (2+AnzahlDienste:2+AnzahlTage)</t>
+  </si>
+  <si>
+    <t>Personal
+O2 - (3+AnzahlPersonal:O + AnzahlDienste)</t>
+  </si>
+  <si>
+    <t>Personal
+MaxWorkstrech AY10</t>
+  </si>
+  <si>
+    <t>Tage
+AnzahlWerktage T2</t>
+  </si>
+  <si>
+    <t>1..5</t>
+  </si>
+  <si>
+    <t>Neuplanung
+tNeuplanung L4</t>
+  </si>
+  <si>
+    <t>Personal
+MinWeFrei AY11</t>
+  </si>
+  <si>
+    <t>Personal
+BDTageDazw AY12</t>
+  </si>
+  <si>
+    <t>Tage
+AnzahlTage I1</t>
+  </si>
+  <si>
+    <t>Tage
+AnzahlWochen T1</t>
+  </si>
+  <si>
+    <t>Personal
+ZeitktoGrenze AY14</t>
+  </si>
+  <si>
+    <t>Personal
+FAmin AY13</t>
+  </si>
+  <si>
+    <t>Personal
+ATage CH2 - (+AnzahlPersonen : +AnzahlWochentage) also 7 Wochentage</t>
+  </si>
+  <si>
+    <t>Personal
+SchnittktoGrenze AY15</t>
+  </si>
+  <si>
+    <t>Personal
+SchnittktoOpt AY16</t>
+  </si>
+  <si>
+    <t>schnittktogrenze + optout * SchnittktoOpt</t>
+  </si>
+  <si>
+    <t>Personal
+BezahlktoGrenze AY17</t>
+  </si>
+  <si>
+    <t>Neuplanung
+NeuplanungJaNein M2</t>
+  </si>
+  <si>
+    <t>Neuplanung
+InputNeuplanung A3-D(nichtleer)</t>
+  </si>
+  <si>
+    <t>Neuplanung
+RequestNeuplanung G3-J(nichtleer)</t>
+  </si>
+  <si>
+    <t>Neuplanung
+EintragNeuplanung O3-R(nichtleer)</t>
+  </si>
+  <si>
+    <t>Tage
+AnfangsWoche P2</t>
+  </si>
+  <si>
+    <t>0..AnzahlWochen</t>
+  </si>
+  <si>
+    <t>Tage
+LetztesWE T4</t>
+  </si>
+  <si>
+    <t>Tage
+AnzahlWEs T3</t>
+  </si>
+  <si>
+    <t>1..letztesWE</t>
+  </si>
+  <si>
+    <t>size of wochenGanz</t>
+  </si>
+  <si>
+    <t>mnWf</t>
+  </si>
+  <si>
+    <t>WorkstrechRange</t>
+  </si>
+  <si>
+    <t>0..MaxWorkstrechRange</t>
+  </si>
+  <si>
+    <t>Ergebnis
+ZFBezeichnung BJ2:BJ24</t>
+  </si>
+  <si>
+    <t>Ergebnis
+ZFKoeff BK2:BK24</t>
+  </si>
+  <si>
+    <t>ctPh</t>
+  </si>
+  <si>
+    <t>tFVl</t>
+  </si>
+  <si>
+    <t>inNW</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>abgeleitet</t>
+  </si>
+  <si>
+    <t>Personal
+AnzahlPersonal AY1</t>
+  </si>
+  <si>
+    <t>fest</t>
   </si>
 </sst>
 </file>
@@ -669,13 +825,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -956,27 +1113,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -986,205 +1144,256 @@
       <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>146</v>
+      <c r="D1" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1192,11 +1401,15 @@
         <v>97</v>
       </c>
       <c r="C19"/>
-      <c r="D19" t="s">
+      <c r="D19"/>
+      <c r="E19" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1204,33 +1417,43 @@
         <v>98</v>
       </c>
       <c r="C20"/>
-      <c r="D20" t="s">
+      <c r="D20"/>
+      <c r="E20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1238,11 +1461,15 @@
         <v>100</v>
       </c>
       <c r="C23"/>
-      <c r="D23" t="s">
+      <c r="D23"/>
+      <c r="E23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1250,11 +1477,15 @@
         <v>59</v>
       </c>
       <c r="C24"/>
-      <c r="D24" t="s">
+      <c r="D24"/>
+      <c r="E24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1262,102 +1493,130 @@
         <v>101</v>
       </c>
       <c r="C25"/>
-      <c r="D25" t="s">
+      <c r="D25"/>
+      <c r="E25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1365,11 +1624,15 @@
         <v>102</v>
       </c>
       <c r="C35"/>
-      <c r="D35" t="s">
+      <c r="D35"/>
+      <c r="E35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1377,11 +1640,15 @@
         <v>12</v>
       </c>
       <c r="C36"/>
-      <c r="D36" s="3" t="s">
+      <c r="D36"/>
+      <c r="E36" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1389,11 +1656,15 @@
         <v>13</v>
       </c>
       <c r="C37"/>
-      <c r="D37" t="s">
+      <c r="D37"/>
+      <c r="E37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1401,11 +1672,15 @@
         <v>103</v>
       </c>
       <c r="C38"/>
-      <c r="D38" t="s">
+      <c r="D38"/>
+      <c r="E38" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -1413,623 +1688,813 @@
         <v>104</v>
       </c>
       <c r="C39"/>
-      <c r="D39" t="s">
+      <c r="D39"/>
+      <c r="E39" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
       <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D53" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G53">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G54">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G56">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D58" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="D59" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" t="s">
         <v>111</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D61" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" t="s">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E63" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" t="s">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" t="s">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" s="4">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" t="s">
+        <v>152</v>
+      </c>
+      <c r="G67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E68" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E69" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="G70">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" t="s">
         <v>116</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D71" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" t="s">
+        <v>230</v>
+      </c>
+      <c r="G71" s="4">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="G72">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E73" t="s">
+        <v>235</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" t="s">
-        <v>118</v>
-      </c>
-      <c r="D69" t="s">
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="G75" s="4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="G76" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E77" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="G77" s="4">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E78" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="G78" s="4">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" t="s">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E80" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" t="s">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="G83" s="4">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="G84">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" t="s">
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>51</v>
-      </c>
-      <c r="B80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" t="s">
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E88" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" t="s">
-        <v>133</v>
-      </c>
-      <c r="D82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" t="s">
-        <v>134</v>
-      </c>
-      <c r="D83" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>56</v>
-      </c>
-      <c r="B84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>23</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2037,7 +2502,7 @@
         <v>50</v>
       </c>
       <c r="B105" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2045,7 +2510,7 @@
         <v>50</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,7 +2518,7 @@
         <v>50</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2061,7 +2526,7 @@
         <v>50</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2069,7 +2534,7 @@
         <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2077,7 +2542,7 @@
         <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,44 +2550,44 @@
         <v>50</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B115" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>54</v>
-      </c>
-      <c r="B116" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>54</v>
-      </c>
-      <c r="B117" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>54</v>
-      </c>
-      <c r="B118" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2130,7 +2595,7 @@
         <v>54</v>
       </c>
       <c r="B119" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2138,7 +2603,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2146,7 +2611,7 @@
         <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2154,7 +2619,7 @@
         <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2162,7 +2627,7 @@
         <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2170,7 +2635,7 @@
         <v>54</v>
       </c>
       <c r="B124" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2178,7 +2643,7 @@
         <v>54</v>
       </c>
       <c r="B125" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2186,7 +2651,7 @@
         <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2194,7 +2659,7 @@
         <v>54</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2202,7 +2667,7 @@
         <v>54</v>
       </c>
       <c r="B128" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2210,7 +2675,7 @@
         <v>54</v>
       </c>
       <c r="B129" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2218,7 +2683,7 @@
         <v>54</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2226,7 +2691,7 @@
         <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2234,7 +2699,7 @@
         <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2242,7 +2707,7 @@
         <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2250,7 +2715,7 @@
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2258,7 +2723,7 @@
         <v>54</v>
       </c>
       <c r="B135" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2266,7 +2731,7 @@
         <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2274,7 +2739,7 @@
         <v>54</v>
       </c>
       <c r="B137" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2282,7 +2747,7 @@
         <v>54</v>
       </c>
       <c r="B138" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2290,6 +2755,38 @@
         <v>54</v>
       </c>
       <c r="B139" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>54</v>
+      </c>
+      <c r="B140" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>54</v>
+      </c>
+      <c r="B141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>54</v>
+      </c>
+      <c r="B142" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143" t="s">
         <v>89</v>
       </c>
     </row>
